--- a/test/restest255.xlsx
+++ b/test/restest255.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet[object Object]" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -376,30 +376,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>12.345</v>
+      </c>
+      <c r="B1" t="str">
+        <v>67.89</v>
+      </c>
+      <c r="C1" t="str">
         <v>1</v>
       </c>
-      <c r="B1" t="str">
+      <c r="D1" t="str">
         <v>10</v>
-      </c>
-      <c r="C1" t="str">
-        <v>12.345</v>
-      </c>
-      <c r="D1" t="str">
-        <v>67.89</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
+        <v>12.345</v>
+      </c>
+      <c r="B2">
+        <v>67.89</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>10</v>
-      </c>
-      <c r="C2">
-        <v>12.345</v>
-      </c>
-      <c r="D2">
-        <v>67.89</v>
       </c>
     </row>
   </sheetData>
